--- a/backend/Amet_data.xlsx
+++ b/backend/Amet_data.xlsx
@@ -590,13 +590,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>11-7-23</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1689082420271</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -635,13 +641,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>11-7-23</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1689082420271</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1530,13 +1542,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>11-7-23</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1689105971122</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1575,13 +1593,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>11-7-23</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1689105971122</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1729,7 +1753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,6 +2017,758 @@
       </c>
       <c r="H7" t="n">
         <v>3333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flaki</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Again</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Try again</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Try again again</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fuck that shit</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fuck that shit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Again Agian shit</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Shit shit shit</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>calabaza</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rica</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>calabaza</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>manzana</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>manzana</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>calabaza</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>otrosssss</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>calabaza</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>otrosssss</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>calabazaaaaaa</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>otrosssss</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>calabazaaaaaa</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>otrosssss</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fresaaa</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>otrosssss</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>titles</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ernesto</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Infante</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>626117235</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>This is a text</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1689105971122</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Amet_data.xlsx
+++ b/backend/Amet_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="paintingsData" sheetId="1" state="visible" r:id="rId2"/>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">100 x 70 cm</t>
   </si>
   <si>
-    <t xml:space="preserve">./images/paintings_available/amet-bread_circus.png</t>
+    <t xml:space="preserve">./images/paintings_available/amet-bread-circus.png</t>
   </si>
   <si>
     <t xml:space="preserve">Bread &amp; Circus</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">50 x 70 cm</t>
   </si>
   <si>
-    <t xml:space="preserve">./images/paintings_available/bread-circus.jpg</t>
+    <t xml:space="preserve">./images/paintings_available/amet-idolatry.png</t>
   </si>
   <si>
     <t xml:space="preserve">Africa</t>
@@ -317,13 +317,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot; €&quot;"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="[&lt;=9999999]###\-####;\(###&quot;) &quot;###\-####"/>
+    <numFmt numFmtId="168" formatCode="[&lt;=9999999]###\-####;\(###&quot;) &quot;###\-####"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -402,7 +401,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -434,8 +433,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -496,7 +499,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,36 +507,44 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -545,14 +556,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Normal" xfId="21"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="21"/>
+    <cellStyle name="Excel Built-in Normal" xfId="22"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
@@ -625,25 +637,25 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="52.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="52.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="17.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="2" width="11.89"/>
   </cols>
   <sheetData>
@@ -1611,7 +1623,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1622,41 +1634,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="21" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="20.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="9" style="19" width="11.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1677,7 +1689,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1693,33 +1705,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1739,35 +1751,35 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
     </row>

--- a/backend/Amet_data.xlsx
+++ b/backend/Amet_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="paintingsData" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paintId</t>
   </si>
 </sst>
 </file>
@@ -637,11 +640,11 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="A1:IV65536"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.21"/>
@@ -656,7 +659,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="10.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="17.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="14" style="2" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="14" style="2" width="11.89"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1626,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A1:IV65536"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1689,7 +1692,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="A1:IV65536"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1749,10 +1752,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="A1:IV65536"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1780,6 +1783,9 @@
         <v>10</v>
       </c>
       <c r="H1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
